--- a/scenario_description/diets.xlsx
+++ b/scenario_description/diets.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claudia.rodes\Documents\GitHub\gcam-core\scenario_description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC2104B-3F21-4E31-BC0C-2C86278158E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC02252-2534-459E-8B48-D9B76445AE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36315" yWindow="-8445" windowWidth="14400" windowHeight="8265" xr2:uid="{CAA6D930-5BBD-463D-B2DD-5A2E277531AD}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="8260" xr2:uid="{CAA6D930-5BBD-463D-B2DD-5A2E277531AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Scenario name</t>
   </si>
@@ -66,9 +67,6 @@
     <t>_animal.protein</t>
   </si>
   <si>
-    <t>Modify the preferences between animal and plant protein</t>
-  </si>
-  <si>
     <t>_trade</t>
   </si>
   <si>
@@ -81,17 +79,92 @@
     <t>Gives preference to the domestic production in front of the imported one. Still to fix!</t>
   </si>
   <si>
-    <t>treure aliments sueltos</t>
+    <t>Diets_antivampire</t>
+  </si>
+  <si>
+    <t>Git branch</t>
+  </si>
+  <si>
+    <t>diets7.0</t>
+  </si>
+  <si>
+    <t>diets7.0_garlic</t>
+  </si>
+  <si>
+    <t>_garlic</t>
+  </si>
+  <si>
+    <t>gcamdata of that branch</t>
+  </si>
+  <si>
+    <t>Outputs garlic as AntiVampire sector</t>
+  </si>
+  <si>
+    <t>Diets_Protein.change.AND.beef.to.poultry</t>
+  </si>
+  <si>
+    <t>_beef.poultry</t>
+  </si>
+  <si>
+    <t>Over the protein change policy (so more plant and less animal protein), increment the preference for poultry instead of beef by 20%</t>
+  </si>
+  <si>
+    <t>Modify the preferences between animal and plant protein 45%</t>
+  </si>
+  <si>
+    <t>Diets_Protein</t>
+  </si>
+  <si>
+    <t>Diets_Trade.double</t>
+  </si>
+  <si>
+    <t>Diets_Protein.Beef</t>
+  </si>
+  <si>
+    <t>DB name</t>
+  </si>
+  <si>
+    <t>diets_clean_dasexdb</t>
+  </si>
+  <si>
+    <t>_ref</t>
+  </si>
+  <si>
+    <t>_protein</t>
+  </si>
+  <si>
+    <t>_protein.beef</t>
+  </si>
+  <si>
+    <t>Diets_Ref</t>
+  </si>
+  <si>
+    <t>Diets_Ref + Modify the preferences between animal and plant protein 45%</t>
+  </si>
+  <si>
+    <t>Diets_Ref + Over the protein change policy (so more plant and less animal protein), increment the preference for poultry instead of beef by 20%</t>
+  </si>
+  <si>
+    <t>Diets_Ref + Gives preference to the domestic production in front of the imported one. Still to fix!</t>
+  </si>
+  <si>
+    <t>diets_dasexdb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -433,78 +506,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2EE504-ACC5-4228-9BFC-665BCE12DDFA}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" customWidth="1"/>
+    <col min="2" max="3" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="32.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D008C5B5-6025-4AE6-BE60-C6B8DDF16755}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D5" t="s">
-        <v>15</v>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/scenario_description/diets.xlsx
+++ b/scenario_description/diets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claudia.rodes\Documents\GitHub\gcam-core\scenario_description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC02252-2534-459E-8B48-D9B76445AE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D825F7-7A1C-4857-9B46-97F7766F0405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="8260" xr2:uid="{CAA6D930-5BBD-463D-B2DD-5A2E277531AD}"/>
+    <workbookView xWindow="1910" yWindow="930" windowWidth="17290" windowHeight="10470" xr2:uid="{CAA6D930-5BBD-463D-B2DD-5A2E277531AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>Scenario name</t>
   </si>
@@ -145,10 +145,13 @@
     <t>Diets_Ref + Over the protein change policy (so more plant and less animal protein), increment the preference for poultry instead of beef by 20%</t>
   </si>
   <si>
-    <t>Diets_Ref + Gives preference to the domestic production in front of the imported one. Still to fix!</t>
-  </si>
-  <si>
     <t>diets_dasexdb</t>
+  </si>
+  <si>
+    <t>aglu/A_agRegionalSubsector_mod.trade</t>
+  </si>
+  <si>
+    <t>Diets_Ref + Gives preference to the domestic production in front of the imported one. Uses a linear function to decrease the imports to 0 by 2055</t>
   </si>
 </sst>
 </file>
@@ -508,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2EE504-ACC5-4228-9BFC-665BCE12DDFA}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -613,15 +616,15 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>

--- a/scenario_description/diets.xlsx
+++ b/scenario_description/diets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claudia.rodes\Documents\GitHub\gcam-core\scenario_description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D825F7-7A1C-4857-9B46-97F7766F0405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1D4147-74C3-4E70-A6D1-4021FB5291DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1910" yWindow="930" windowWidth="17290" windowHeight="10470" xr2:uid="{CAA6D930-5BBD-463D-B2DD-5A2E277531AD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{CAA6D930-5BBD-463D-B2DD-5A2E277531AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -511,15 +511,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2EE504-ACC5-4228-9BFC-665BCE12DDFA}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="3" width="16.54296875" customWidth="1"/>
     <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="32.453125" customWidth="1"/>
+    <col min="5" max="5" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
